--- a/models/Fully_incomplete_markets_ADMM - Different deltas/NEW WAY implied WACC/cinv_risk_free.xlsx
+++ b/models/Fully_incomplete_markets_ADMM - Different deltas/NEW WAY implied WACC/cinv_risk_free.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\msc-thesis-incomplete-markets-LDES\models\Fully_incomplete_markets_ADMM - Different deltas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\msc-thesis-incomplete-markets-LDES\models\Fully_incomplete_markets_ADMM - Different deltas\NEW WAY implied WACC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82DD07DF-08AE-4876-BB9E-D8252E0430CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C1A061-8865-4D69-B63C-1C80A29F0CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34695" yWindow="4125" windowWidth="21600" windowHeight="11235" xr2:uid="{F02FDA62-4D99-42AF-9059-B760232356C5}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{F02FDA62-4D99-42AF-9059-B760232356C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>WACC</t>
   </si>
@@ -80,15 +80,9 @@
     <t>N</t>
   </si>
   <si>
-    <t>CAPACITY DELTA=1</t>
-  </si>
-  <si>
     <t>Cinv_RISK_FREE</t>
   </si>
   <si>
-    <t>ENERGY DELTA=1</t>
-  </si>
-  <si>
     <t>FOM</t>
   </si>
   <si>
@@ -98,24 +92,12 @@
     <t>WINDOFF</t>
   </si>
   <si>
-    <t>H2</t>
-  </si>
-  <si>
     <t>fully incomplete</t>
   </si>
   <si>
-    <t>incomplete</t>
-  </si>
-  <si>
     <t>pv</t>
   </si>
   <si>
-    <t>win onshore</t>
-  </si>
-  <si>
-    <t>wind offshore</t>
-  </si>
-  <si>
     <t>nuclear</t>
   </si>
   <si>
@@ -126,6 +108,42 @@
   </si>
   <si>
     <t>bess</t>
+  </si>
+  <si>
+    <t>Power_Cinv_RISK_FREE</t>
+  </si>
+  <si>
+    <t>Energy_Cinv_RISK_FREE</t>
+  </si>
+  <si>
+    <t>H2_P</t>
+  </si>
+  <si>
+    <t>H2_E</t>
+  </si>
+  <si>
+    <t>BESS_P</t>
+  </si>
+  <si>
+    <t>BESS_E</t>
+  </si>
+  <si>
+    <t>wind on</t>
+  </si>
+  <si>
+    <t>wind off</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>power cap</t>
+  </si>
+  <si>
+    <t>energy cap</t>
   </si>
 </sst>
 </file>
@@ -504,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DCA424E-CEAF-4124-BB54-B05AB72DADB3}">
-  <dimension ref="A1:J61"/>
+  <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -521,9 +539,11 @@
     <col min="8" max="8" width="16.6640625" customWidth="1"/>
     <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" customWidth="1"/>
+    <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -545,11 +565,8 @@
       <c r="G1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -566,18 +583,15 @@
       <c r="E2">
         <v>1136000</v>
       </c>
-      <c r="F2">
-        <v>134.52707162806001</v>
-      </c>
-      <c r="G2" s="2">
-        <f>(D2*E2+H2)*F2</f>
-        <v>13931806.897517901</v>
-      </c>
-      <c r="H2">
+      <c r="F2" s="2">
+        <f>(D2*E2+G2)</f>
+        <v>103561.36299492576</v>
+      </c>
+      <c r="G2">
         <v>13000</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -594,18 +608,15 @@
       <c r="E3">
         <v>1327000</v>
       </c>
-      <c r="F3">
-        <v>51.895745216632399</v>
-      </c>
-      <c r="G3" s="2">
-        <f>(D3*E3+H3)*F3</f>
-        <v>6509745.5806445181</v>
-      </c>
-      <c r="H3">
+      <c r="F3" s="2">
+        <f>(D3*E3+G3)</f>
+        <v>125438.90743779451</v>
+      </c>
+      <c r="G3">
         <v>28000</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -622,18 +633,15 @@
       <c r="E4">
         <v>3487000</v>
       </c>
-      <c r="F4">
-        <v>93.412336102454702</v>
-      </c>
-      <c r="G4" s="2">
-        <f t="shared" ref="G4:G6" si="1">(D4*E4+H4)*F4</f>
-        <v>31669167.793623108</v>
-      </c>
-      <c r="H4">
+      <c r="F4" s="2">
+        <f>(D4*E4+G4)</f>
+        <v>339025.54111149034</v>
+      </c>
+      <c r="G4">
         <v>72000</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -650,18 +658,15 @@
       <c r="E5">
         <v>6344000</v>
       </c>
-      <c r="F5">
-        <v>3.9999940157707998</v>
-      </c>
-      <c r="G5" s="2">
-        <f t="shared" si="1"/>
-        <v>2431509.1886059796</v>
-      </c>
-      <c r="H5">
+      <c r="F5" s="2">
+        <f>(D5*E5+G5)</f>
+        <v>607878.20657212334</v>
+      </c>
+      <c r="G5">
         <v>156000</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -678,18 +683,15 @@
       <c r="E6">
         <v>1330000</v>
       </c>
-      <c r="F6">
-        <v>48.6800271248241</v>
-      </c>
-      <c r="G6" s="2">
-        <f t="shared" si="1"/>
-        <v>20743922.009788379</v>
-      </c>
-      <c r="H6">
+      <c r="F6" s="2">
+        <f>(D6*E6+G6)</f>
+        <v>426127.98790348525</v>
+      </c>
+      <c r="G6">
         <v>312000</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -709,19 +711,16 @@
         <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -742,20 +741,18 @@
         <v>15000</v>
       </c>
       <c r="G10">
-        <v>4.9008339675712902</v>
+        <v>118000</v>
       </c>
       <c r="H10">
-        <v>440.75958020859201</v>
+        <f>(E10*D10+G10)</f>
+        <v>391384.65456049552</v>
       </c>
       <c r="I10">
-        <f>(E10*D10+J10)*G10+(F10*D10)*H10</f>
-        <v>2575367.0580719863</v>
-      </c>
-      <c r="J10">
-        <v>118000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <f>(F10*D10)</f>
+        <v>1491.1890248754301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -776,27 +773,26 @@
         <v>201000</v>
       </c>
       <c r="G11">
-        <v>24.5007855565798</v>
+        <v>27000</v>
       </c>
       <c r="H11">
-        <v>98.003132687700798</v>
+        <f>(E11*D11+G11)</f>
+        <v>52719.444308171165</v>
       </c>
       <c r="I11">
-        <f>(E11*D11+J11)*G11+(F11*D11)*H11</f>
-        <v>3009084.1005064296</v>
-      </c>
-      <c r="J11">
-        <v>27000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <f>(F11*D11)</f>
+        <v>17524.095952347132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="1"/>
       <c r="D16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>4</v>
       </c>
@@ -804,7 +800,7 @@
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>7</v>
@@ -813,98 +809,125 @@
         <v>8</v>
       </c>
       <c r="H17" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="J17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.75</v>
       </c>
       <c r="C18" s="3">
-        <v>6.1100000000000002E-2</v>
+        <v>6.0999999999999999E-2</v>
       </c>
       <c r="D18" s="3">
-        <v>0.12659999999999999</v>
+        <v>0.12740000000000001</v>
       </c>
       <c r="E18" s="3">
-        <v>4.87E-2</v>
+        <v>4.9200000000000001E-2</v>
       </c>
       <c r="F18" s="3">
         <v>0.15190000000000001</v>
       </c>
       <c r="G18" s="3">
-        <v>-3.5299999999999998E-2</v>
+        <v>-3.5799999999999998E-2</v>
       </c>
       <c r="H18" s="3">
-        <v>7.4499999999999997E-2</v>
+        <v>6.8000000000000005E-2</v>
       </c>
       <c r="I18" s="3">
-        <v>5.3699999999999998E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4.2299999999999997E-2</v>
+      </c>
+      <c r="J18">
+        <v>0.05</v>
+      </c>
+      <c r="K18">
+        <v>8.3599999999999994E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0.5</v>
       </c>
       <c r="C19" s="3">
-        <v>6.0999999999999999E-2</v>
+        <v>6.0400000000000002E-2</v>
       </c>
       <c r="D19" s="3">
-        <v>0.1263</v>
+        <v>0.12770000000000001</v>
       </c>
       <c r="E19" s="3">
-        <v>4.87E-2</v>
+        <v>4.9599999999999998E-2</v>
       </c>
       <c r="F19" s="3">
         <v>0.15040000000000001</v>
       </c>
       <c r="G19" s="3">
-        <v>-4.58E-2</v>
+        <v>-4.6600000000000003E-2</v>
       </c>
       <c r="H19" s="3">
-        <v>7.6499999999999999E-2</v>
+        <v>6.7599999999999993E-2</v>
       </c>
       <c r="I19" s="3">
-        <v>5.1900000000000002E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4.2799999999999998E-2</v>
+      </c>
+      <c r="J19">
+        <v>0.05</v>
+      </c>
+      <c r="K19">
+        <v>8.4000000000000005E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0.25</v>
       </c>
       <c r="C20" s="3">
-        <v>6.1100000000000002E-2</v>
+        <v>6.0199999999999997E-2</v>
       </c>
       <c r="D20" s="3">
-        <v>0.12640000000000001</v>
+        <v>0.1283</v>
       </c>
       <c r="E20" s="3">
-        <v>4.8899999999999999E-2</v>
+        <v>5.0099999999999999E-2</v>
       </c>
       <c r="F20" s="3">
         <v>0.14940000000000001</v>
       </c>
       <c r="G20" s="3">
-        <v>-5.4399999999999997E-2</v>
+        <v>-5.5300000000000002E-2</v>
       </c>
       <c r="H20" s="3">
-        <v>7.9799999999999996E-2</v>
+        <v>6.8199999999999997E-2</v>
       </c>
       <c r="I20" s="3">
-        <v>4.9700000000000001E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="J20">
+        <v>0.05</v>
+      </c>
+      <c r="K20">
+        <v>8.5000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1"/>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>4</v>
       </c>
@@ -912,7 +935,7 @@
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>7</v>
@@ -921,13 +944,19 @@
         <v>8</v>
       </c>
       <c r="H23" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="J23" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0.75</v>
       </c>
@@ -939,542 +968,416 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0.5</v>
       </c>
-      <c r="C25" s="3">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0.13220000000000001</v>
-      </c>
-      <c r="E25" s="3">
-        <v>5.1700000000000003E-2</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0.1656</v>
-      </c>
-      <c r="G25" s="3">
-        <v>8.3000000000000001E-3</v>
-      </c>
-      <c r="H25" s="3">
-        <v>6.0199999999999997E-2</v>
-      </c>
-      <c r="I25" s="3">
-        <v>7.4099999999999999E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0.25</v>
       </c>
-      <c r="C26" s="3">
-        <v>7.1499999999999994E-2</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0.13639999999999999</v>
-      </c>
-      <c r="E26" s="3">
-        <v>5.3600000000000002E-2</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0.17449999999999999</v>
-      </c>
-      <c r="G26" s="3">
-        <v>3.0099999999999998E-2</v>
-      </c>
-      <c r="H26" s="3">
-        <v>6.6299999999999998E-2</v>
-      </c>
-      <c r="I26" s="3">
-        <v>8.7999999999999995E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="F28" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>0.5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30">
+        <v>13802954.0304728</v>
+      </c>
+      <c r="E30">
+        <v>135.27385557418501</v>
+      </c>
+      <c r="F30">
+        <f>D30/E30</f>
+        <v>102037.11553784445</v>
+      </c>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C31" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <v>11523739.5444187</v>
+      </c>
+      <c r="E31">
+        <v>51.394308566572903</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ref="F31:F34" si="1">D31/E31</f>
+        <v>224222.09512735411</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D32">
+        <v>26515559.1185962</v>
+      </c>
+      <c r="E32">
+        <v>92.509751684007398</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>286624.47618676367</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33">
+        <v>5134941.4088277798</v>
+      </c>
+      <c r="E33">
+        <v>3.9999899416150102</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>1283738.5802911615</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34">
+        <v>4965934.2877068203</v>
+      </c>
+      <c r="E34">
+        <v>49.319985919545097</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>100688.07188646949</v>
+      </c>
+      <c r="H34" t="s">
+        <v>34</v>
+      </c>
+      <c r="I34" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="D35">
+        <v>163775.686911967</v>
+      </c>
+      <c r="E35">
+        <v>220978.367799072</v>
+      </c>
+      <c r="F35">
+        <f>D35+E35</f>
+        <v>384754.054711039</v>
+      </c>
+      <c r="G35">
+        <v>1212.5035565236701</v>
+      </c>
+      <c r="J35">
+        <f>F35*H35+G35*I35</f>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>0.5</v>
-      </c>
-      <c r="C36">
-        <v>14654878.9478394</v>
+      <c r="C36" t="s">
+        <v>23</v>
       </c>
       <c r="D36">
-        <v>12013415.7775119</v>
+        <v>51.012480840481203</v>
       </c>
       <c r="E36">
-        <v>27424957.429590899</v>
+        <v>61.468636138937299</v>
       </c>
       <c r="F36">
-        <v>5653658.7723556897</v>
+        <f>D36+E36</f>
+        <v>112.4811169794185</v>
       </c>
       <c r="G36">
-        <v>10752739.541531799</v>
-      </c>
-      <c r="H36">
-        <v>2395544.3477241602</v>
-      </c>
-      <c r="I36">
-        <v>3362979.1963321101</v>
-      </c>
-      <c r="J36" t="s">
-        <v>22</v>
+        <v>21096.035834495098</v>
+      </c>
+      <c r="J36">
+        <f>F36*H36+G36*I36</f>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>0.5</v>
-      </c>
-      <c r="H38">
-        <v>2697660.6642398001</v>
-      </c>
-      <c r="J38" t="s">
-        <v>18</v>
+        <v>0.25</v>
+      </c>
+      <c r="C38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38">
+        <v>13813690.1419324</v>
+      </c>
+      <c r="E38">
+        <v>135.70720353247199</v>
+      </c>
+      <c r="F38">
+        <f>D38/E38</f>
+        <v>101790.39713707654</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H39" s="1"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>0.25</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="C39" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39">
+        <v>11531867.415809499</v>
+      </c>
+      <c r="E39">
+        <v>51.215202174867301</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ref="F39:F42" si="2">D39/E39</f>
+        <v>225164.93006188897</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40">
+        <v>26577137.875127301</v>
+      </c>
+      <c r="E40">
+        <v>92.187360194780695</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>288294.81415861176</v>
+      </c>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D41">
+        <v>5100492.2932500001</v>
+      </c>
+      <c r="E41">
+        <v>3.9999785278561899</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="2"/>
+        <v>1275129.9182557454</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42">
+        <v>4316646.0445085196</v>
+      </c>
+      <c r="E42">
+        <v>49.482383489663803</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="2"/>
+        <v>87236.01694348875</v>
+      </c>
+      <c r="H42" t="s">
+        <v>34</v>
+      </c>
+      <c r="I42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43">
+        <v>167439.074493461</v>
+      </c>
+      <c r="E43">
+        <v>218949.327825335</v>
+      </c>
+      <c r="F43">
+        <f>D43+E43</f>
+        <v>386388.40231879603</v>
+      </c>
+      <c r="G43">
+        <v>1238.14566323691</v>
+      </c>
+      <c r="J43">
+        <f>F43*H43+G43*I43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
         <v>23</v>
       </c>
-      <c r="D45" t="s">
-        <v>24</v>
-      </c>
-      <c r="E45" t="s">
-        <v>25</v>
-      </c>
-      <c r="F45" t="s">
-        <v>26</v>
-      </c>
-      <c r="G45" t="s">
-        <v>27</v>
-      </c>
-      <c r="H45" t="s">
-        <v>28</v>
-      </c>
-      <c r="I45" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C46">
-        <v>16769268.691649901</v>
-      </c>
-      <c r="D46">
-        <v>10773227.395984299</v>
-      </c>
-      <c r="E46" s="1">
-        <v>24623398.125435099</v>
-      </c>
-      <c r="F46" s="1">
-        <v>6048836.8492404902</v>
-      </c>
-      <c r="G46" s="1">
-        <v>18044832.1404767</v>
-      </c>
-      <c r="H46" s="1">
-        <v>3080003.1438523098</v>
-      </c>
-      <c r="I46" s="1">
-        <v>3954543.6717834398</v>
-      </c>
-      <c r="J46" s="1"/>
+      <c r="D44">
+        <v>102.330954714613</v>
+      </c>
+      <c r="E44">
+        <v>123.130632561523</v>
+      </c>
+      <c r="F44">
+        <f>D44+E44</f>
+        <v>225.46158727613602</v>
+      </c>
+      <c r="G44">
+        <v>21233.2458311306</v>
+      </c>
+      <c r="J44">
+        <f>F44*H44+G44*I44</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C47">
-        <v>19035117.391929898</v>
-      </c>
-      <c r="D47">
-        <v>13970356.5719081</v>
-      </c>
-      <c r="E47" s="1">
-        <v>32929704.270274598</v>
-      </c>
-      <c r="F47" s="1">
-        <v>8538401.5675485209</v>
-      </c>
-      <c r="G47" s="1">
-        <v>43361891.9922475</v>
-      </c>
-      <c r="H47" s="1">
-        <v>3764032.5495805801</v>
-      </c>
-      <c r="I47" s="1">
-        <v>4256463.4044693597</v>
-      </c>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C48">
-        <v>14060162.4599688</v>
-      </c>
-      <c r="D48">
-        <v>11862849.1806655</v>
-      </c>
-      <c r="E48" s="1">
-        <v>28262213.0477922</v>
-      </c>
-      <c r="F48" s="1">
-        <v>5364540.2942447998</v>
-      </c>
-      <c r="G48" s="1">
-        <v>3286159.6499548098</v>
-      </c>
-      <c r="H48" s="1">
-        <v>1674747.8038814701</v>
-      </c>
-      <c r="I48" s="1">
-        <v>2991523.7495923098</v>
-      </c>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C49">
-        <v>12352160.9166025</v>
-      </c>
-      <c r="D49">
-        <v>9931237.4613428004</v>
-      </c>
-      <c r="E49" s="1">
-        <v>23859072.314998601</v>
-      </c>
-      <c r="F49" s="1">
-        <v>5206404.8409568099</v>
-      </c>
-      <c r="G49" s="1">
-        <v>15728458.4710311</v>
-      </c>
-      <c r="H49" s="1">
-        <v>2984373.60945326</v>
-      </c>
-      <c r="I49" s="1">
-        <v>3967334.9411610202</v>
-      </c>
+    <row r="49" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C50">
-        <v>10917268.4182433</v>
-      </c>
-      <c r="D50">
-        <v>9068299.0342321694</v>
-      </c>
-      <c r="E50" s="1">
-        <v>20734105.7421235</v>
-      </c>
-      <c r="F50" s="1">
-        <v>3897018.6533242799</v>
-      </c>
-      <c r="G50">
-        <v>949318.22503700596</v>
-      </c>
-      <c r="H50" s="1">
-        <v>1541052.0257168401</v>
-      </c>
-      <c r="I50" s="1">
-        <v>3048501.8194542802</v>
-      </c>
+    <row r="50" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C51">
-        <v>15436746.560025699</v>
-      </c>
-      <c r="D51">
-        <v>12510123.398544</v>
-      </c>
-      <c r="E51" s="1">
-        <v>29690471.8019423</v>
-      </c>
-      <c r="F51" s="1">
-        <v>5201861.1493937299</v>
-      </c>
-      <c r="G51" s="1">
-        <v>1101813.4902582199</v>
-      </c>
-      <c r="H51" s="1">
-        <v>1624015.36142537</v>
-      </c>
-      <c r="I51" s="1">
-        <v>2508153.0385969202</v>
-      </c>
+    <row r="51" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C52">
-        <v>17321182.1216495</v>
-      </c>
-      <c r="D52">
-        <v>12864694.435288601</v>
-      </c>
-      <c r="E52" s="1">
-        <v>29984685.001035199</v>
-      </c>
-      <c r="F52" s="1">
-        <v>6581557.1224060496</v>
-      </c>
-      <c r="G52" s="1">
-        <v>18436890.068677898</v>
-      </c>
-      <c r="H52" s="1">
-        <v>3043288.23585351</v>
-      </c>
-      <c r="I52" s="1">
-        <v>4507640.9882133603</v>
-      </c>
+    <row r="52" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C53">
-        <v>14410383.1024097</v>
-      </c>
-      <c r="D53">
-        <v>12311692.267748499</v>
-      </c>
-      <c r="E53" s="1">
-        <v>27445957.031108901</v>
-      </c>
-      <c r="F53" s="1">
-        <v>5414875.85192669</v>
-      </c>
-      <c r="G53" s="1">
-        <v>7172993.8862751899</v>
-      </c>
-      <c r="H53" s="1">
-        <v>2180082.1584257898</v>
-      </c>
-      <c r="I53" s="1">
-        <v>3601875.8087452999</v>
-      </c>
+    <row r="53" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C54">
-        <v>13872259.147633901</v>
-      </c>
-      <c r="D54">
-        <v>10727139.5368002</v>
-      </c>
-      <c r="E54" s="1">
-        <v>25448795.997117501</v>
-      </c>
-      <c r="F54" s="1">
-        <v>5235003.7019140301</v>
-      </c>
-      <c r="G54" s="1">
-        <v>11606248.617256399</v>
-      </c>
-      <c r="H54" s="1">
-        <v>2632087.38490122</v>
-      </c>
-      <c r="I54" s="1">
-        <v>3712131.6478012898</v>
-      </c>
+    <row r="54" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
-    <row r="55" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C55">
-        <v>17172077.7866203</v>
-      </c>
-      <c r="D55">
-        <v>14363152.420892499</v>
-      </c>
-      <c r="E55" s="1">
-        <v>34755610.918887898</v>
-      </c>
-      <c r="F55" s="1">
-        <v>6840331.6065790402</v>
-      </c>
-      <c r="G55" s="1">
-        <v>14355897.073016301</v>
-      </c>
-      <c r="H55" s="1">
-        <v>2458457.74951676</v>
-      </c>
-      <c r="I55" s="1">
-        <v>4347487.1924396297</v>
-      </c>
+    <row r="55" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
       <c r="J55" s="1"/>
     </row>
-    <row r="56" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C56">
-        <v>14501086.7639936</v>
-      </c>
-      <c r="D56">
-        <v>12106383.703889599</v>
-      </c>
-      <c r="E56" s="1">
-        <v>27055403.705264602</v>
-      </c>
-      <c r="F56" s="1">
-        <v>5080368.4644190101</v>
-      </c>
-      <c r="G56">
-        <v>688366.40557415003</v>
-      </c>
-      <c r="H56" s="1">
-        <v>1669954.4242799401</v>
-      </c>
-      <c r="I56" s="1">
-        <v>2871772.7940872102</v>
-      </c>
+    <row r="56" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
       <c r="J56" s="1"/>
     </row>
-    <row r="57" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C57">
-        <v>13933056.5223248</v>
-      </c>
-      <c r="D57">
-        <v>13075135.1410238</v>
-      </c>
-      <c r="E57" s="1">
-        <v>27607635.5480977</v>
-      </c>
-      <c r="F57" s="1">
-        <v>5254239.2508459901</v>
-      </c>
-      <c r="G57" s="1">
-        <v>4599330.0994025897</v>
-      </c>
-      <c r="H57" s="1">
-        <v>2013908.2772898499</v>
-      </c>
-      <c r="I57" s="1">
-        <v>3553670.1956521301</v>
-      </c>
+    <row r="57" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
       <c r="J57" s="1"/>
     </row>
-    <row r="58" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C58">
-        <v>14139118.345452599</v>
-      </c>
-      <c r="D58">
-        <v>13748735.1968525</v>
-      </c>
-      <c r="E58" s="1">
-        <v>29794870.353083801</v>
-      </c>
-      <c r="F58" s="1">
-        <v>5786978.1900299098</v>
-      </c>
-      <c r="G58" s="1">
-        <v>9242405.0987684093</v>
-      </c>
-      <c r="H58" s="1">
-        <v>2106133.5718213902</v>
-      </c>
-      <c r="I58" s="1">
-        <v>3559275.6040969701</v>
-      </c>
+    <row r="58" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
       <c r="J58" s="1"/>
     </row>
-    <row r="59" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C59">
-        <v>14144328.984979199</v>
-      </c>
-      <c r="D59">
-        <v>13992381.1018994</v>
-      </c>
-      <c r="E59" s="1">
-        <v>27464849.4300224</v>
-      </c>
-      <c r="F59" s="1">
-        <v>6921767.3747811997</v>
-      </c>
-      <c r="G59" s="1">
-        <v>26926681.056979202</v>
-      </c>
-      <c r="H59" s="1">
-        <v>3617664.89779448</v>
-      </c>
-      <c r="I59" s="1">
-        <v>5214286.4595856601</v>
-      </c>
+    <row r="59" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
       <c r="J59" s="1"/>
     </row>
-    <row r="60" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C60">
-        <v>19947405.732930101</v>
-      </c>
-      <c r="D60">
-        <v>14061647.515964899</v>
-      </c>
-      <c r="E60" s="1">
-        <v>30474160.6870589</v>
-      </c>
-      <c r="F60" s="1">
-        <v>7985582.5510383099</v>
-      </c>
-      <c r="G60" s="1">
-        <v>32949798.595995098</v>
-      </c>
-      <c r="H60" s="1">
-        <v>3202977.7870792998</v>
-      </c>
-      <c r="I60" s="1">
-        <v>3819396.4040034399</v>
-      </c>
+    <row r="60" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
       <c r="J60" s="1"/>
     </row>
-    <row r="61" spans="3:10" x14ac:dyDescent="0.3">
-      <c r="C61">
-        <f>SUM(C46:C60)/15</f>
-        <v>15200774.863094252</v>
-      </c>
-      <c r="D61">
-        <f>SUM(D46:D60)/15</f>
-        <v>12357803.62420246</v>
-      </c>
-      <c r="E61">
-        <f>SUM(E46:E60)/15</f>
-        <v>28008728.931616221</v>
-      </c>
-      <c r="F61">
-        <f>SUM(F46:F60)/15</f>
-        <v>5957184.4979099231</v>
-      </c>
-      <c r="G61">
-        <f t="shared" ref="G61:I61" si="2">SUM(G46:G60)/15</f>
-        <v>13896738.991396705</v>
-      </c>
-      <c r="H61">
-        <f t="shared" si="2"/>
-        <v>2506185.2653914709</v>
-      </c>
-      <c r="I61">
-        <f t="shared" si="2"/>
-        <v>3727603.847978821</v>
-      </c>
+    <row r="61" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/models/Fully_incomplete_markets_ADMM - Different deltas/NEW WAY implied WACC/cinv_risk_free.xlsx
+++ b/models/Fully_incomplete_markets_ADMM - Different deltas/NEW WAY implied WACC/cinv_risk_free.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\msc-thesis-incomplete-markets-LDES\models\Fully_incomplete_markets_ADMM - Different deltas\NEW WAY implied WACC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C1A061-8865-4D69-B63C-1C80A29F0CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AB2A4D-97A9-43CC-B451-FA1E10362FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{F02FDA62-4D99-42AF-9059-B760232356C5}"/>
   </bookViews>
@@ -524,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DCA424E-CEAF-4124-BB54-B05AB72DADB3}">
   <dimension ref="A1:L61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B15" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1052,7 +1052,7 @@
         <v>286624.47618676367</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>1283738.5802911615</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>21</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>22</v>
       </c>
@@ -1105,12 +1105,21 @@
       <c r="G35">
         <v>1212.5035565236701</v>
       </c>
+      <c r="H35">
+        <v>5.6789849907164296</v>
+      </c>
+      <c r="I35">
+        <v>488.310582551479</v>
+      </c>
       <c r="J35">
         <f>F35*H35+G35*I35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2777090.8198530921</v>
+      </c>
+      <c r="K35">
+        <v>2699244.8048427301</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>23</v>
       </c>
@@ -1127,12 +1136,21 @@
       <c r="G36">
         <v>21096.035834495098</v>
       </c>
+      <c r="H36">
+        <v>23.964365074177898</v>
+      </c>
+      <c r="I36">
+        <v>95.857145732467302</v>
+      </c>
       <c r="J36">
         <f>F36*H36+G36*I36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2024901.3199157952</v>
+      </c>
+      <c r="K36">
+        <v>2814517.4362770598</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0.25</v>
       </c>
@@ -1150,7 +1168,7 @@
         <v>101790.39713707654</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>30</v>
       </c>
@@ -1165,7 +1183,7 @@
         <v>225164.93006188897</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>31</v>
       </c>
@@ -1181,7 +1199,7 @@
       </c>
       <c r="H40" s="1"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>20</v>
       </c>
@@ -1196,7 +1214,7 @@
         <v>1275129.9182557454</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>21</v>
       </c>
@@ -1217,7 +1235,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>22</v>
       </c>
@@ -1234,12 +1252,21 @@
       <c r="G43">
         <v>1238.14566323691</v>
       </c>
+      <c r="H43">
+        <v>6.0551324397207198</v>
+      </c>
+      <c r="I43">
+        <v>510.36356419475902</v>
+      </c>
       <c r="J43">
         <f>F43*H43+G43*I43</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2971537.3828942757</v>
+      </c>
+      <c r="K43">
+        <v>2760278.9939497402</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>23</v>
       </c>
@@ -1256,12 +1283,21 @@
       <c r="G44">
         <v>21233.2458311306</v>
       </c>
+      <c r="H44">
+        <v>23.955255325461899</v>
+      </c>
+      <c r="I44">
+        <v>95.819666052372</v>
+      </c>
       <c r="J44">
         <f>F44*H44+G44*I44</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+        <v>2039963.5146361378</v>
+      </c>
+      <c r="K44">
+        <v>2762928.0656088302</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -1269,7 +1305,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>

--- a/models/Fully_incomplete_markets_ADMM - Different deltas/NEW WAY implied WACC/cinv_risk_free.xlsx
+++ b/models/Fully_incomplete_markets_ADMM - Different deltas/NEW WAY implied WACC/cinv_risk_free.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\msc-thesis-incomplete-markets-LDES\models\Fully_incomplete_markets_ADMM - Different deltas\NEW WAY implied WACC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6AB2A4D-97A9-43CC-B451-FA1E10362FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8ADBFAF-6D4A-431B-900D-06F640E8167C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{F02FDA62-4D99-42AF-9059-B760232356C5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F02FDA62-4D99-42AF-9059-B760232356C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
   <si>
     <t>WACC</t>
   </si>
@@ -144,6 +144,36 @@
   </si>
   <si>
     <t>energy cap</t>
+  </si>
+  <si>
+    <t>no abs</t>
+  </si>
+  <si>
+    <t>abs</t>
+  </si>
+  <si>
+    <t>3rd way</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>time weights</t>
+  </si>
+  <si>
+    <t>probability (1/15)</t>
+  </si>
+  <si>
+    <t>μ</t>
+  </si>
+  <si>
+    <t>dual of cvar constraint</t>
+  </si>
+  <si>
+    <t>λ</t>
+  </si>
+  <si>
+    <t>dual of power and energy capacity constraints (discharge, charge, energy)</t>
   </si>
 </sst>
 </file>
@@ -203,6 +233,125 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>291354</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>56377</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>54499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7757D01F-E86A-6EC5-D437-AD7CDC61B4AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="2171" b="97965" l="1711" r="98289">
+                      <a14:foregroundMark x1="3042" y1="1900" x2="20342" y2="2714"/>
+                      <a14:foregroundMark x1="20342" y1="2714" x2="40684" y2="8005"/>
+                      <a14:foregroundMark x1="40684" y1="8005" x2="13878" y2="16011"/>
+                      <a14:foregroundMark x1="13878" y1="16011" x2="77186" y2="8548"/>
+                      <a14:foregroundMark x1="77186" y1="8548" x2="20152" y2="37178"/>
+                      <a14:foregroundMark x1="20152" y1="37178" x2="42395" y2="38670"/>
+                      <a14:foregroundMark x1="42395" y1="38670" x2="81369" y2="34600"/>
+                      <a14:foregroundMark x1="33650" y1="24559" x2="8555" y2="32972"/>
+                      <a14:foregroundMark x1="8555" y1="32972" x2="99049" y2="2035"/>
+                      <a14:foregroundMark x1="99049" y1="2035" x2="98859" y2="17232"/>
+                      <a14:foregroundMark x1="98859" y1="17232" x2="85551" y2="31479"/>
+                      <a14:foregroundMark x1="85551" y1="31479" x2="73574" y2="32700"/>
+                      <a14:foregroundMark x1="73574" y1="32700" x2="73574" y2="32972"/>
+                      <a14:foregroundMark x1="84030" y1="27544" x2="67490" y2="28765"/>
+                      <a14:foregroundMark x1="67490" y1="28765" x2="84030" y2="13433"/>
+                      <a14:foregroundMark x1="84030" y1="13433" x2="83650" y2="2442"/>
+                      <a14:foregroundMark x1="83650" y1="2442" x2="51141" y2="7734"/>
+                      <a14:foregroundMark x1="51141" y1="7734" x2="21103" y2="5292"/>
+                      <a14:foregroundMark x1="21103" y1="5292" x2="7985" y2="1357"/>
+                      <a14:foregroundMark x1="7985" y1="1357" x2="24905" y2="9905"/>
+                      <a14:foregroundMark x1="24905" y1="9905" x2="12167" y2="23745"/>
+                      <a14:foregroundMark x1="12167" y1="23745" x2="44297" y2="3664"/>
+                      <a14:foregroundMark x1="44297" y1="3664" x2="81559" y2="12076"/>
+                      <a14:foregroundMark x1="81559" y1="12076" x2="80989" y2="25102"/>
+                      <a14:foregroundMark x1="80989" y1="25102" x2="72243" y2="36635"/>
+                      <a14:foregroundMark x1="72243" y1="36635" x2="46388" y2="41791"/>
+                      <a14:foregroundMark x1="46388" y1="41791" x2="20722" y2="41655"/>
+                      <a14:foregroundMark x1="20722" y1="41655" x2="11217" y2="35142"/>
+                      <a14:foregroundMark x1="11217" y1="35142" x2="20532" y2="23066"/>
+                      <a14:foregroundMark x1="20532" y1="23066" x2="3992" y2="3935"/>
+                      <a14:foregroundMark x1="3992" y1="3935" x2="8935" y2="23066"/>
+                      <a14:foregroundMark x1="8935" y1="23066" x2="87262" y2="31750"/>
+                      <a14:foregroundMark x1="87262" y1="31750" x2="94867" y2="39484"/>
+                      <a14:foregroundMark x1="94867" y1="39484" x2="89544" y2="28765"/>
+                      <a14:foregroundMark x1="89544" y1="28765" x2="93916" y2="9905"/>
+                      <a14:foregroundMark x1="96958" y1="97151" x2="90875" y2="87110"/>
+                      <a14:foregroundMark x1="90875" y1="87110" x2="59316" y2="72592"/>
+                      <a14:foregroundMark x1="59316" y1="72592" x2="27947" y2="77341"/>
+                      <a14:foregroundMark x1="27947" y1="77341" x2="18631" y2="98236"/>
+                      <a14:foregroundMark x1="26426" y1="80733" x2="5133" y2="69064"/>
+                      <a14:foregroundMark x1="5133" y1="69064" x2="1901" y2="64858"/>
+                      <a14:foregroundMark x1="76616" y1="49254" x2="76616" y2="49254"/>
+                      <a14:foregroundMark x1="76236" y1="48711" x2="76236" y2="48711"/>
+                      <a14:foregroundMark x1="25475" y1="2171" x2="65779" y2="3256"/>
+                      <a14:backgroundMark x1="63878" y1="44505" x2="79278" y2="44505"/>
+                      <a14:backgroundMark x1="79278" y1="44505" x2="95627" y2="44505"/>
+                      <a14:backgroundMark x1="95627" y1="44505" x2="63498" y2="44369"/>
+                      <a14:backgroundMark x1="63498" y1="44369" x2="65399" y2="44912"/>
+                      <a14:backgroundMark x1="63498" y1="44912" x2="89163" y2="45183"/>
+                      <a14:backgroundMark x1="89163" y1="45183" x2="62738" y2="45590"/>
+                      <a14:backgroundMark x1="68251" y1="45047" x2="80608" y2="45047"/>
+                      <a14:backgroundMark x1="80608" y1="45047" x2="93726" y2="45047"/>
+                      <a14:backgroundMark x1="90494" y1="43555" x2="88403" y2="45183"/>
+                      <a14:backgroundMark x1="92205" y1="43691" x2="95057" y2="43691"/>
+                      <a14:backgroundMark x1="95247" y1="45047" x2="96198" y2="44776"/>
+                      <a14:backgroundMark x1="94867" y1="43555" x2="91255" y2="45183"/>
+                      <a14:backgroundMark x1="63878" y1="44233" x2="62928" y2="45455"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11710148" y="537882"/>
+          <a:ext cx="4008467" cy="5612617"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -522,10 +671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DCA424E-CEAF-4124-BB54-B05AB72DADB3}">
-  <dimension ref="A1:L61"/>
+  <dimension ref="A1:Z61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y24" sqref="Y24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,9 +690,10 @@
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
     <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -566,7 +716,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -591,7 +741,7 @@
         <v>13000</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -616,7 +766,7 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -641,7 +791,7 @@
         <v>72000</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -666,7 +816,7 @@
         <v>156000</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -691,7 +841,21 @@
         <v>312000</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="W8" t="s">
+        <v>26</v>
+      </c>
+      <c r="X8" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -719,8 +883,23 @@
       <c r="I9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="V9" t="s">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="X9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y9">
+        <v>0.06</v>
+      </c>
+      <c r="Z9">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -751,8 +930,23 @@
         <f>(F10*D10)</f>
         <v>1491.1890248754301</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="V10" t="s">
+        <v>37</v>
+      </c>
+      <c r="W10">
+        <v>19.632899999999999</v>
+      </c>
+      <c r="X10">
+        <v>17.721499999999999</v>
+      </c>
+      <c r="Y10">
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="Z10">
+        <v>22.5885</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -783,8 +977,40 @@
         <f>(F11*D11)</f>
         <v>17524.095952347132</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="V11" t="s">
+        <v>36</v>
+      </c>
+      <c r="W11">
+        <v>1384.3125</v>
+      </c>
+      <c r="X11">
+        <v>2453.3332999999998</v>
+      </c>
+      <c r="Y11">
+        <v>4.8124000000000002</v>
+      </c>
+      <c r="Z11">
+        <v>2153.1024000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="V12" t="s">
+        <v>38</v>
+      </c>
+      <c r="W12">
+        <v>6.7699999999999996E-2</v>
+      </c>
+      <c r="X12">
+        <v>4.2799999999999998E-2</v>
+      </c>
+      <c r="Y12">
+        <v>0.05</v>
+      </c>
+      <c r="Z12">
+        <v>8.4099999999999994E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="C16" s="1"/>
       <c r="D16" t="s">
         <v>16</v>
@@ -792,7 +1018,7 @@
       <c r="F16" s="1"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>4</v>
       </c>
@@ -808,20 +1034,14 @@
       <c r="G17" t="s">
         <v>8</v>
       </c>
-      <c r="H17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="V17" t="s">
+        <v>39</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.75</v>
       </c>
@@ -840,20 +1060,16 @@
       <c r="G18" s="3">
         <v>-3.5799999999999998E-2</v>
       </c>
-      <c r="H18" s="3">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="I18" s="3">
-        <v>4.2299999999999997E-2</v>
-      </c>
-      <c r="J18">
-        <v>0.05</v>
-      </c>
-      <c r="K18">
-        <v>8.3599999999999994E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="V18" t="s">
+        <v>32</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0.5</v>
       </c>
@@ -872,20 +1088,16 @@
       <c r="G19" s="3">
         <v>-4.6600000000000003E-2</v>
       </c>
-      <c r="H19" s="3">
-        <v>6.7599999999999993E-2</v>
-      </c>
-      <c r="I19" s="3">
-        <v>4.2799999999999998E-2</v>
-      </c>
-      <c r="J19">
-        <v>0.05</v>
-      </c>
-      <c r="K19">
-        <v>8.4000000000000005E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="V19" t="s">
+        <v>42</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0.25</v>
       </c>
@@ -904,30 +1116,27 @@
       <c r="G20" s="3">
         <v>-5.5300000000000002E-2</v>
       </c>
-      <c r="H20" s="3">
-        <v>6.8199999999999997E-2</v>
-      </c>
-      <c r="I20" s="3">
-        <v>4.5499999999999999E-2</v>
-      </c>
-      <c r="J20">
-        <v>0.05</v>
-      </c>
-      <c r="K20">
-        <v>8.5000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="V20" t="s">
+        <v>44</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C22" s="1"/>
       <c r="D22" t="s">
         <v>18</v>
       </c>
       <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="W22" s="1"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>4</v>
       </c>
@@ -956,7 +1165,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0.75</v>
       </c>
@@ -968,7 +1177,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0.5</v>
       </c>
@@ -980,7 +1189,7 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0.25</v>
       </c>
@@ -992,7 +1201,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="F28" t="s">
         <v>32</v>
       </c>
@@ -1000,10 +1209,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0.5</v>
       </c>
@@ -1022,7 +1231,7 @@
       </c>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>30</v>
       </c>
@@ -1037,7 +1246,7 @@
         <v>224222.09512735411</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>31</v>
       </c>
@@ -1093,17 +1302,17 @@
         <v>22</v>
       </c>
       <c r="D35">
-        <v>163775.686911967</v>
+        <v>231566.63656138501</v>
       </c>
       <c r="E35">
-        <v>220978.367799072</v>
+        <v>276694.45487408602</v>
       </c>
       <c r="F35">
         <f>D35+E35</f>
-        <v>384754.054711039</v>
+        <v>508261.09143547103</v>
       </c>
       <c r="G35">
-        <v>1212.5035565236701</v>
+        <v>1514.8848136311001</v>
       </c>
       <c r="H35">
         <v>5.6789849907164296</v>
@@ -1112,8 +1321,8 @@
         <v>488.310582551479</v>
       </c>
       <c r="J35">
-        <f>F35*H35+G35*I35</f>
-        <v>2777090.8198530921</v>
+        <f>(F35*H35+G35*I35)</f>
+        <v>3626141.3954697819</v>
       </c>
       <c r="K35">
         <v>2699244.8048427301</v>
@@ -1418,5 +1627,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/models/Fully_incomplete_markets_ADMM - Different deltas/NEW WAY implied WACC/cinv_risk_free.xlsx
+++ b/models/Fully_incomplete_markets_ADMM - Different deltas/NEW WAY implied WACC/cinv_risk_free.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\msc-thesis-incomplete-markets-LDES\models\Fully_incomplete_markets_ADMM - Different deltas\NEW WAY implied WACC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8ADBFAF-6D4A-431B-900D-06F640E8167C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64308CC1-0C6C-43D8-9BC4-E582656D6750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F02FDA62-4D99-42AF-9059-B760232356C5}"/>
   </bookViews>

--- a/models/Fully_incomplete_markets_ADMM - Different deltas/NEW WAY implied WACC/cinv_risk_free.xlsx
+++ b/models/Fully_incomplete_markets_ADMM - Different deltas/NEW WAY implied WACC/cinv_risk_free.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\msc-thesis-incomplete-markets-LDES\models\Fully_incomplete_markets_ADMM - Different deltas\NEW WAY implied WACC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64308CC1-0C6C-43D8-9BC4-E582656D6750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6206DBA5-3FB1-4165-8955-968896E42A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F02FDA62-4D99-42AF-9059-B760232356C5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
   <si>
     <t>WACC</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>dual of power and energy capacity constraints (discharge, charge, energy)</t>
+  </si>
+  <si>
+    <t>4rd way (w below in divison)</t>
   </si>
 </sst>
 </file>
@@ -246,9 +249,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>56377</xdr:colOff>
+      <xdr:colOff>60187</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>54499</xdr:rowOff>
+      <xdr:rowOff>58309</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -674,7 +677,7 @@
   <dimension ref="A1:Z61"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y24" sqref="Y24"/>
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -690,6 +693,7 @@
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="19" customWidth="1"/>
     <col min="12" max="12" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.109375" customWidth="1"/>
     <col min="23" max="23" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1008,6 +1012,23 @@
       </c>
       <c r="Z12">
         <v>8.4099999999999994E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="V13" t="s">
+        <v>46</v>
+      </c>
+      <c r="W13">
+        <v>9.92</v>
+      </c>
+      <c r="X13">
+        <v>18.902899999999999</v>
+      </c>
+      <c r="Y13">
+        <v>-2.7099999999999999E-2</v>
+      </c>
+      <c r="Z13">
+        <v>24.975100000000001</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.3">
@@ -1301,18 +1322,18 @@
       <c r="C35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D35">
-        <v>231566.63656138501</v>
-      </c>
-      <c r="E35">
-        <v>276694.45487408602</v>
-      </c>
-      <c r="F35">
+      <c r="D35" s="1">
+        <v>6109868.1187093398</v>
+      </c>
+      <c r="E35" s="1">
+        <v>32944821.072118599</v>
+      </c>
+      <c r="F35" s="1">
         <f>D35+E35</f>
-        <v>508261.09143547103</v>
+        <v>39054689.190827936</v>
       </c>
       <c r="G35">
-        <v>1514.8848136311001</v>
+        <v>283543.004084813</v>
       </c>
       <c r="H35">
         <v>5.6789849907164296</v>
@@ -1322,7 +1343,7 @@
       </c>
       <c r="J35">
         <f>(F35*H35+G35*I35)</f>
-        <v>3626141.3954697819</v>
+        <v>360248043.23485845</v>
       </c>
       <c r="K35">
         <v>2699244.8048427301</v>
@@ -1333,17 +1354,17 @@
         <v>23</v>
       </c>
       <c r="D36">
-        <v>51.012480840481203</v>
+        <v>9214.7190023262392</v>
       </c>
       <c r="E36">
-        <v>61.468636138937299</v>
+        <v>13168.6802518486</v>
       </c>
       <c r="F36">
         <f>D36+E36</f>
-        <v>112.4811169794185</v>
-      </c>
-      <c r="G36">
-        <v>21096.035834495098</v>
+        <v>22383.399254174838</v>
+      </c>
+      <c r="G36" s="1">
+        <v>5015583.2275126399</v>
       </c>
       <c r="H36">
         <v>23.964365074177898</v>
@@ -1353,7 +1374,7 @@
       </c>
       <c r="J36">
         <f>F36*H36+G36*I36</f>
-        <v>2024901.3199157952</v>
+        <v>481315896.32432592</v>
       </c>
       <c r="K36">
         <v>2814517.4362770598</v>

--- a/models/Fully_incomplete_markets_ADMM - Different deltas/NEW WAY implied WACC/cinv_risk_free.xlsx
+++ b/models/Fully_incomplete_markets_ADMM - Different deltas/NEW WAY implied WACC/cinv_risk_free.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\msc-thesis-incomplete-markets-LDES\models\Fully_incomplete_markets_ADMM - Different deltas\NEW WAY implied WACC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6206DBA5-3FB1-4165-8955-968896E42A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93A6A94-2D3F-4835-8AED-8051918F9AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F02FDA62-4D99-42AF-9059-B760232356C5}"/>
+    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{F02FDA62-4D99-42AF-9059-B760232356C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
   <si>
     <t>WACC</t>
   </si>
@@ -196,12 +196,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -216,11 +222,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -249,9 +258,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>60187</xdr:colOff>
+      <xdr:colOff>56377</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>58309</xdr:rowOff>
+      <xdr:rowOff>54499</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -676,8 +685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DCA424E-CEAF-4124-BB54-B05AB72DADB3}">
   <dimension ref="A1:Z61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z14" sqref="Z14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52:H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -844,6 +853,9 @@
       <c r="G6">
         <v>312000</v>
       </c>
+      <c r="V6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="W8" t="s">
@@ -1001,16 +1013,16 @@
       <c r="V12" t="s">
         <v>38</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="4">
         <v>6.7699999999999996E-2</v>
       </c>
-      <c r="X12">
+      <c r="X12" s="4">
         <v>4.2799999999999998E-2</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="4">
         <v>0.05</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" s="4">
         <v>8.4099999999999994E-2</v>
       </c>
     </row>
@@ -1039,7 +1051,7 @@
       <c r="F16" s="1"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>4</v>
       </c>
@@ -1055,6 +1067,18 @@
       <c r="G17" t="s">
         <v>8</v>
       </c>
+      <c r="H17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" t="s">
+        <v>29</v>
+      </c>
       <c r="V17" t="s">
         <v>39</v>
       </c>
@@ -1062,7 +1086,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.75</v>
       </c>
@@ -1090,7 +1114,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0.5</v>
       </c>
@@ -1118,7 +1142,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0.25</v>
       </c>
@@ -1146,10 +1170,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C22" s="1"/>
       <c r="D22" t="s">
         <v>18</v>
@@ -1157,7 +1181,7 @@
       <c r="F22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>4</v>
       </c>
@@ -1186,7 +1210,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0.75</v>
       </c>
@@ -1198,7 +1222,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0.5</v>
       </c>
@@ -1207,10 +1231,20 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="H25" s="6">
+        <v>7.2599999999999998E-2</v>
+      </c>
+      <c r="I25" s="6">
+        <v>4.2500000000000003E-2</v>
+      </c>
+      <c r="J25" s="4">
+        <v>4.99E-2</v>
+      </c>
+      <c r="K25" s="4">
+        <v>8.8599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0.25</v>
       </c>
@@ -1222,7 +1256,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="F28" t="s">
         <v>32</v>
       </c>
@@ -1230,10 +1264,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0.5</v>
       </c>
@@ -1251,8 +1285,12 @@
         <v>102037.11553784445</v>
       </c>
       <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="V30" s="5"/>
+      <c r="W30" s="5"/>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>30</v>
       </c>
@@ -1267,7 +1305,7 @@
         <v>224222.09512735411</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>31</v>
       </c>
@@ -1322,18 +1360,18 @@
       <c r="C35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="1">
-        <v>6109868.1187093398</v>
-      </c>
-      <c r="E35" s="1">
-        <v>32944821.072118599</v>
-      </c>
-      <c r="F35" s="1">
+      <c r="D35">
+        <v>163511.631524795</v>
+      </c>
+      <c r="E35">
+        <v>235173.78228978699</v>
+      </c>
+      <c r="F35">
         <f>D35+E35</f>
-        <v>39054689.190827936</v>
+        <v>398685.41381458199</v>
       </c>
       <c r="G35">
-        <v>283543.004084813</v>
+        <v>1209.2281957330299</v>
       </c>
       <c r="H35">
         <v>5.6789849907164296</v>
@@ -1343,7 +1381,7 @@
       </c>
       <c r="J35">
         <f>(F35*H35+G35*I35)</f>
-        <v>360248043.23485845</v>
+        <v>2854607.4057666496</v>
       </c>
       <c r="K35">
         <v>2699244.8048427301</v>
@@ -1354,17 +1392,17 @@
         <v>23</v>
       </c>
       <c r="D36">
-        <v>9214.7190023262392</v>
+        <v>6.3698915192238203E-4</v>
       </c>
       <c r="E36">
-        <v>13168.6802518486</v>
+        <v>7.5198100753492698E-4</v>
       </c>
       <c r="F36">
         <f>D36+E36</f>
-        <v>22383.399254174838</v>
-      </c>
-      <c r="G36" s="1">
-        <v>5015583.2275126399</v>
+        <v>1.3889701594573091E-3</v>
+      </c>
+      <c r="G36">
+        <v>21796.683096197801</v>
       </c>
       <c r="H36">
         <v>23.964365074177898</v>
@@ -1374,7 +1412,7 @@
       </c>
       <c r="J36">
         <f>F36*H36+G36*I36</f>
-        <v>481315896.32432592</v>
+        <v>2089367.8613224272</v>
       </c>
       <c r="K36">
         <v>2814517.4362770598</v>
@@ -1583,17 +1621,10 @@
       <c r="J53" s="1"/>
     </row>
     <row r="54" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
     </row>
     <row r="55" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>

--- a/models/Fully_incomplete_markets_ADMM - Different deltas/NEW WAY implied WACC/cinv_risk_free.xlsx
+++ b/models/Fully_incomplete_markets_ADMM - Different deltas/NEW WAY implied WACC/cinv_risk_free.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\msc-thesis-incomplete-markets-LDES\models\Fully_incomplete_markets_ADMM - Different deltas\NEW WAY implied WACC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93A6A94-2D3F-4835-8AED-8051918F9AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224690A3-48C3-4FF8-9928-055BDE8FFBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{F02FDA62-4D99-42AF-9059-B760232356C5}"/>
   </bookViews>

--- a/models/Fully_incomplete_markets_ADMM - Different deltas/NEW WAY implied WACC/cinv_risk_free.xlsx
+++ b/models/Fully_incomplete_markets_ADMM - Different deltas/NEW WAY implied WACC/cinv_risk_free.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\msc-thesis-incomplete-markets-LDES\models\Fully_incomplete_markets_ADMM - Different deltas\NEW WAY implied WACC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224690A3-48C3-4FF8-9928-055BDE8FFBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4113B0D-CEFB-42AD-9789-E4EDDA437C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{F02FDA62-4D99-42AF-9059-B760232356C5}"/>
   </bookViews>
@@ -222,13 +222,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -258,9 +257,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>56377</xdr:colOff>
+      <xdr:colOff>60187</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>54499</xdr:rowOff>
+      <xdr:rowOff>58309</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -685,8 +684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DCA424E-CEAF-4124-BB54-B05AB72DADB3}">
   <dimension ref="A1:Z61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52:H63"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="94" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1051,7 +1050,7 @@
       <c r="F16" s="1"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>4</v>
       </c>
@@ -1086,7 +1085,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>0.75</v>
       </c>
@@ -1114,7 +1113,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>0.5</v>
       </c>
@@ -1142,7 +1141,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>0.25</v>
       </c>
@@ -1170,10 +1169,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C22" s="1"/>
       <c r="D22" t="s">
         <v>18</v>
@@ -1181,7 +1180,7 @@
       <c r="F22" s="1"/>
       <c r="W22" s="1"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>4</v>
       </c>
@@ -1210,7 +1209,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>0.75</v>
       </c>
@@ -1222,7 +1221,7 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>0.5</v>
       </c>
@@ -1231,10 +1230,10 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="6">
+      <c r="H25" s="5">
         <v>7.2599999999999998E-2</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="5">
         <v>4.2500000000000003E-2</v>
       </c>
       <c r="J25" s="4">
@@ -1244,7 +1243,7 @@
         <v>8.8599999999999998E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>0.25</v>
       </c>
@@ -1256,7 +1255,7 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="F28" t="s">
         <v>32</v>
       </c>
@@ -1264,10 +1263,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>0.5</v>
       </c>
@@ -1285,12 +1284,11 @@
         <v>102037.11553784445</v>
       </c>
       <c r="G30" s="1"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="M30">
+        <v>2925018.5583260502</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>30</v>
       </c>
@@ -1304,8 +1302,11 @@
         <f t="shared" ref="F31:F34" si="1">D31/E31</f>
         <v>224222.09512735411</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="M31">
+        <v>3411905.5284579601</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>31</v>
       </c>
@@ -1319,8 +1320,11 @@
         <f t="shared" si="1"/>
         <v>286624.47618676367</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M32">
+        <v>1893951.7090298701</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>20</v>
       </c>
@@ -1334,8 +1338,11 @@
         <f t="shared" si="1"/>
         <v>1283738.5802911615</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M33">
+        <v>2022880.3212055699</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>21</v>
       </c>
@@ -1355,39 +1362,46 @@
       <c r="I34" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M34">
+        <v>2274535.0656355298</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D35">
-        <v>163511.631524795</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>235173.78228978699</v>
+        <v>391384.65439429</v>
       </c>
       <c r="F35">
         <f>D35+E35</f>
-        <v>398685.41381458199</v>
+        <v>391384.65439429</v>
       </c>
       <c r="G35">
-        <v>1209.2281957330299</v>
+        <v>1507.8304263816401</v>
       </c>
       <c r="H35">
-        <v>5.6789849907164296</v>
+        <v>4.0199999999999996</v>
       </c>
       <c r="I35">
-        <v>488.310582551479</v>
+        <v>364.8</v>
       </c>
       <c r="J35">
         <f>(F35*H35+G35*I35)</f>
-        <v>2854607.4057666496</v>
+        <v>2123422.850209068</v>
       </c>
       <c r="K35">
-        <v>2699244.8048427301</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+        <f>M45</f>
+        <v>2406888.6413302212</v>
+      </c>
+      <c r="M35">
+        <v>2853754.8911208902</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>23</v>
       </c>
@@ -1417,8 +1431,16 @@
       <c r="K36">
         <v>2814517.4362770598</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M36">
+        <v>1654609.7864117301</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M37">
+        <v>1599997.02956976</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>0.25</v>
       </c>
@@ -1435,8 +1457,11 @@
         <f>D38/E38</f>
         <v>101790.39713707654</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M38">
+        <v>1670250.6386330901</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>30</v>
       </c>
@@ -1450,8 +1475,11 @@
         <f t="shared" ref="F39:F42" si="2">D39/E39</f>
         <v>225164.93006188897</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M39">
+        <v>2849501.1779929302</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>31</v>
       </c>
@@ -1466,8 +1494,11 @@
         <v>288294.81415861176</v>
       </c>
       <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M40">
+        <v>3510828.5675342102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>20</v>
       </c>
@@ -1481,8 +1512,11 @@
         <f t="shared" si="2"/>
         <v>1275129.9182557454</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M41">
+        <v>3110048.4453138802</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>21</v>
       </c>
@@ -1502,8 +1536,11 @@
       <c r="I42" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M42">
+        <v>2103939.0879659499</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>22</v>
       </c>
@@ -1533,8 +1570,11 @@
       <c r="K43">
         <v>2760278.9939497402</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M43">
+        <v>2471454.9999017501</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>23</v>
       </c>
@@ -1564,8 +1604,17 @@
       <c r="K44">
         <v>2762928.0656088302</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M44">
+        <v>1750653.8128541501</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="M45">
+        <f>SUM(M30:M44)/15</f>
+        <v>2406888.6413302212</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -1573,7 +1622,7 @@
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>

--- a/models/Fully_incomplete_markets_ADMM - Different deltas/NEW WAY implied WACC/cinv_risk_free.xlsx
+++ b/models/Fully_incomplete_markets_ADMM - Different deltas/NEW WAY implied WACC/cinv_risk_free.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\msc-thesis-incomplete-markets-LDES\models\Fully_incomplete_markets_ADMM - Different deltas\NEW WAY implied WACC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4113B0D-CEFB-42AD-9789-E4EDDA437C24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F001F54-2BC6-4338-9465-F4B60866ABE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43095" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{F02FDA62-4D99-42AF-9059-B760232356C5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F02FDA62-4D99-42AF-9059-B760232356C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="48">
   <si>
     <t>WACC</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>4rd way (w below in divison)</t>
+  </si>
+  <si>
+    <t>UE complete</t>
   </si>
 </sst>
 </file>
@@ -257,9 +260,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>60187</xdr:colOff>
+      <xdr:colOff>56377</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>58309</xdr:rowOff>
+      <xdr:rowOff>54499</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -682,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DCA424E-CEAF-4124-BB54-B05AB72DADB3}">
-  <dimension ref="A1:Z61"/>
+  <dimension ref="A1:Z65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="94" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="94" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1654,7 +1657,9 @@
       <c r="J51" s="1"/>
     </row>
     <row r="52" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E52" s="1"/>
+      <c r="E52" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -1670,60 +1675,194 @@
       <c r="J53" s="1"/>
     </row>
     <row r="54" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="I54" s="1"/>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54">
+        <v>0.75</v>
+      </c>
+      <c r="H54">
+        <v>0.5</v>
+      </c>
+      <c r="I54">
+        <v>0.25</v>
+      </c>
       <c r="J54" s="1"/>
     </row>
     <row r="55" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
+      <c r="E55">
+        <v>11</v>
+      </c>
+      <c r="F55">
+        <v>81.407704739026002</v>
+      </c>
+      <c r="G55">
+        <v>60.191499913804599</v>
+      </c>
+      <c r="H55" s="1">
+        <v>42.155166863047697</v>
+      </c>
+      <c r="I55" s="1">
+        <v>28.293997793296001</v>
+      </c>
       <c r="J55" s="1"/>
     </row>
     <row r="56" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
+      <c r="E56">
+        <v>12</v>
+      </c>
+      <c r="F56">
+        <v>99.440118498377601</v>
+      </c>
+      <c r="G56">
+        <v>76.868794013150307</v>
+      </c>
+      <c r="H56">
+        <v>57.622372861604603</v>
+      </c>
+      <c r="I56" s="1">
+        <v>42.754975583767198</v>
+      </c>
       <c r="J56" s="1"/>
     </row>
     <row r="57" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
+      <c r="E57">
+        <v>19</v>
+      </c>
+      <c r="F57">
+        <v>0.53969204585014496</v>
+      </c>
+      <c r="G57">
+        <v>1.76794637903904</v>
+      </c>
+      <c r="H57">
+        <v>2.1679269502258598</v>
+      </c>
+      <c r="I57" s="1">
+        <v>4.6796974820447499</v>
+      </c>
       <c r="J57" s="1"/>
     </row>
     <row r="58" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
+      <c r="E58">
+        <v>23</v>
+      </c>
+      <c r="F58">
+        <v>0.54654016556594298</v>
+      </c>
+      <c r="G58">
+        <v>1.7901008076642899</v>
+      </c>
+      <c r="H58">
+        <v>2.1952189829272299</v>
+      </c>
+      <c r="I58" s="1">
+        <v>4.73879752168087</v>
+      </c>
       <c r="J58" s="1"/>
     </row>
     <row r="59" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-      <c r="I59" s="1"/>
+      <c r="E59">
+        <v>24</v>
+      </c>
+      <c r="F59">
+        <v>0.54652823192835598</v>
+      </c>
+      <c r="G59">
+        <v>1.8085984010712901</v>
+      </c>
+      <c r="H59">
+        <v>2.23274175145347</v>
+      </c>
+      <c r="I59" s="1">
+        <v>4.8413581271816799</v>
+      </c>
       <c r="J59" s="1"/>
     </row>
     <row r="60" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-      <c r="I60" s="1"/>
+      <c r="E60">
+        <v>30</v>
+      </c>
+      <c r="F60">
+        <v>0.54652860902293499</v>
+      </c>
+      <c r="G60">
+        <v>1.7899089598044</v>
+      </c>
+      <c r="H60">
+        <v>2.1954182388787098</v>
+      </c>
+      <c r="I60" s="1">
+        <v>4.7402192904984002</v>
+      </c>
       <c r="J60" s="1"/>
     </row>
     <row r="61" spans="5:10" x14ac:dyDescent="0.3">
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1"/>
+      <c r="E61">
+        <v>7</v>
+      </c>
+      <c r="F61">
+        <v>0.54259765071696997</v>
+      </c>
+      <c r="G61">
+        <v>1.7775869745839401</v>
+      </c>
+      <c r="H61">
+        <v>2.1796448118020901</v>
+      </c>
+      <c r="I61" s="1">
+        <v>4.7047611352958496</v>
+      </c>
       <c r="J61" s="1"/>
+    </row>
+    <row r="62" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E62">
+        <v>8</v>
+      </c>
+      <c r="F62">
+        <v>0.54653796673372301</v>
+      </c>
+      <c r="G62">
+        <v>1.7899421587470301</v>
+      </c>
+      <c r="H62">
+        <v>2.1951330124380402</v>
+      </c>
+      <c r="I62">
+        <v>4.7388865231000397</v>
+      </c>
+    </row>
+    <row r="63" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="F63">
+        <f>SUM(F55:F62)/8</f>
+        <v>23.014530988402708</v>
+      </c>
+      <c r="G63">
+        <f t="shared" ref="G63:I63" si="3">SUM(G55:G62)/8</f>
+        <v>18.473047200983114</v>
+      </c>
+      <c r="H63">
+        <f>SUM(H55:H62)/8</f>
+        <v>14.117952934047214</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="3"/>
+        <v>12.436586682108096</v>
+      </c>
+    </row>
+    <row r="65" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="G65">
+        <f>100*($F$63-G63)/(65)</f>
+        <v>6.9868981344916827</v>
+      </c>
+      <c r="H65">
+        <f t="shared" ref="H65:I65" si="4">100*($F$63-H63)/(65)</f>
+        <v>13.687043160546915</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="4"/>
+        <v>16.273760471222481</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/models/Fully_incomplete_markets_ADMM - Different deltas/NEW WAY implied WACC/cinv_risk_free.xlsx
+++ b/models/Fully_incomplete_markets_ADMM - Different deltas/NEW WAY implied WACC/cinv_risk_free.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\msc-thesis-incomplete-markets-LDES\models\Fully_incomplete_markets_ADMM - Different deltas\NEW WAY implied WACC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F001F54-2BC6-4338-9465-F4B60866ABE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B929D6DA-2351-4FDD-B181-BF3AF066C1B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F02FDA62-4D99-42AF-9059-B760232356C5}"/>
+    <workbookView xWindow="28950" yWindow="0" windowWidth="13110" windowHeight="15585" xr2:uid="{F02FDA62-4D99-42AF-9059-B760232356C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -260,9 +260,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>56377</xdr:colOff>
+      <xdr:colOff>60187</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>54499</xdr:rowOff>
+      <xdr:rowOff>58309</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -687,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DCA424E-CEAF-4124-BB54-B05AB72DADB3}">
   <dimension ref="A1:Z65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="94" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="94" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1374,17 +1374,17 @@
         <v>22</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>146774.459469786</v>
       </c>
       <c r="E35">
-        <v>391384.65439429</v>
+        <v>260796.22312032501</v>
       </c>
       <c r="F35">
         <f>D35+E35</f>
-        <v>391384.65439429</v>
+        <v>407570.68259011104</v>
       </c>
       <c r="G35">
-        <v>1507.8304263816401</v>
+        <v>1180.09361914289</v>
       </c>
       <c r="H35">
         <v>4.0199999999999996</v>
@@ -1394,7 +1394,7 @@
       </c>
       <c r="J35">
         <f>(F35*H35+G35*I35)</f>
-        <v>2123422.850209068</v>
+        <v>2068932.2962755726</v>
       </c>
       <c r="K35">
         <f>M45</f>
@@ -1409,17 +1409,17 @@
         <v>23</v>
       </c>
       <c r="D36">
-        <v>6.3698915192238203E-4</v>
+        <v>1873.1647033320801</v>
       </c>
       <c r="E36">
-        <v>7.5198100753492698E-4</v>
+        <v>27280.993618496399</v>
       </c>
       <c r="F36">
         <f>D36+E36</f>
-        <v>1.3889701594573091E-3</v>
+        <v>29154.15832182848</v>
       </c>
       <c r="G36">
-        <v>21796.683096197801</v>
+        <v>14330.245344147599</v>
       </c>
       <c r="H36">
         <v>23.964365074177898</v>
@@ -1429,7 +1429,7 @@
       </c>
       <c r="J36">
         <f>F36*H36+G36*I36</f>
-        <v>2089367.8613224272</v>
+        <v>2072317.3097906467</v>
       </c>
       <c r="K36">
         <v>2814517.4362770598</v>
@@ -1633,7 +1633,7 @@
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
     </row>
-    <row r="49" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -1641,7 +1641,7 @@
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
     </row>
-    <row r="50" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -1649,14 +1649,14 @@
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
     </row>
-    <row r="51" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
     </row>
-    <row r="52" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E52" s="1" t="s">
         <v>47</v>
       </c>
@@ -1666,7 +1666,7 @@
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
     </row>
-    <row r="53" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -1674,7 +1674,7 @@
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
     </row>
-    <row r="54" spans="5:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:12" x14ac:dyDescent="0.3">
       <c r="F54">
         <v>1</v>
       </c>
@@ -1687,9 +1687,17 @@
       <c r="I54">
         <v>0.25</v>
       </c>
-      <c r="J54" s="1"/>
-    </row>
-    <row r="55" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="J54" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="K54">
+        <v>0.5</v>
+      </c>
+      <c r="L54">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="55" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E55">
         <v>11</v>
       </c>
@@ -1705,9 +1713,17 @@
       <c r="I55" s="1">
         <v>28.293997793296001</v>
       </c>
-      <c r="J55" s="1"/>
-    </row>
-    <row r="56" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="J55" s="1">
+        <v>108.879457028451</v>
+      </c>
+      <c r="K55">
+        <v>139.02260857745901</v>
+      </c>
+      <c r="L55">
+        <v>170.87806174973099</v>
+      </c>
+    </row>
+    <row r="56" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E56">
         <v>12</v>
       </c>
@@ -1723,9 +1739,17 @@
       <c r="I56" s="1">
         <v>42.754975583767198</v>
       </c>
-      <c r="J56" s="1"/>
-    </row>
-    <row r="57" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="J56" s="1">
+        <v>128.371915278871</v>
+      </c>
+      <c r="K56">
+        <v>160.15520415595199</v>
+      </c>
+      <c r="L56">
+        <v>194.433792118773</v>
+      </c>
+    </row>
+    <row r="57" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E57">
         <v>19</v>
       </c>
@@ -1741,9 +1765,17 @@
       <c r="I57" s="1">
         <v>4.6796974820447499</v>
       </c>
-      <c r="J57" s="1"/>
-    </row>
-    <row r="58" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="J57" s="1">
+        <v>1.14509813329277E-5</v>
+      </c>
+      <c r="K57" s="1">
+        <v>2.54332795890377E-6</v>
+      </c>
+      <c r="L57" s="1">
+        <v>5.0337569064140502E-6</v>
+      </c>
+    </row>
+    <row r="58" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E58">
         <v>23</v>
       </c>
@@ -1759,9 +1791,17 @@
       <c r="I58" s="1">
         <v>4.73879752168087</v>
       </c>
-      <c r="J58" s="1"/>
-    </row>
-    <row r="59" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="J58" s="1">
+        <v>1.1514009372604E-5</v>
+      </c>
+      <c r="K58" s="1">
+        <v>2.5653959241367298E-6</v>
+      </c>
+      <c r="L58" s="1">
+        <v>6.6215246263823204E-6</v>
+      </c>
+    </row>
+    <row r="59" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E59">
         <v>24</v>
       </c>
@@ -1777,9 +1817,17 @@
       <c r="I59" s="1">
         <v>4.8413581271816799</v>
       </c>
-      <c r="J59" s="1"/>
-    </row>
-    <row r="60" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="J59" s="1">
+        <v>1.1422454392118099E-5</v>
+      </c>
+      <c r="K59" s="1">
+        <v>2.52213882845353E-6</v>
+      </c>
+      <c r="L59" s="1">
+        <v>4.8551168134736102E-6</v>
+      </c>
+    </row>
+    <row r="60" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E60">
         <v>30</v>
       </c>
@@ -1795,9 +1843,17 @@
       <c r="I60" s="1">
         <v>4.7402192904984002</v>
       </c>
-      <c r="J60" s="1"/>
-    </row>
-    <row r="61" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="J60" s="1">
+        <v>1.14226318217447E-5</v>
+      </c>
+      <c r="K60" s="1">
+        <v>2.5222242143740901E-6</v>
+      </c>
+      <c r="L60" s="1">
+        <v>4.85903328240056E-6</v>
+      </c>
+    </row>
+    <row r="61" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E61">
         <v>7</v>
       </c>
@@ -1813,9 +1869,17 @@
       <c r="I61" s="1">
         <v>4.7047611352958496</v>
       </c>
-      <c r="J61" s="1"/>
-    </row>
-    <row r="62" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="J61" s="1">
+        <v>1.18730899387742E-5</v>
+      </c>
+      <c r="K61">
+        <v>23.1189235245417</v>
+      </c>
+      <c r="L61">
+        <v>74.856152219254597</v>
+      </c>
+    </row>
+    <row r="62" spans="5:12" x14ac:dyDescent="0.3">
       <c r="E62">
         <v>8</v>
       </c>
@@ -1831,14 +1895,23 @@
       <c r="I62">
         <v>4.7388865231000397</v>
       </c>
-    </row>
-    <row r="63" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="J62" s="1">
+        <v>1.14842031493367E-5</v>
+      </c>
+      <c r="K62" s="1">
+        <v>2.5481313201680601E-6</v>
+      </c>
+      <c r="L62">
+        <v>38.8641365712691</v>
+      </c>
+    </row>
+    <row r="63" spans="5:12" x14ac:dyDescent="0.3">
       <c r="F63">
         <f>SUM(F55:F62)/8</f>
         <v>23.014530988402708</v>
       </c>
       <c r="G63">
-        <f t="shared" ref="G63:I63" si="3">SUM(G55:G62)/8</f>
+        <f t="shared" ref="G63:L63" si="3">SUM(G55:G62)/8</f>
         <v>18.473047200983114</v>
       </c>
       <c r="H63">
@@ -1849,8 +1922,20 @@
         <f t="shared" si="3"/>
         <v>12.436586682108096</v>
       </c>
-    </row>
-    <row r="65" spans="7:9" x14ac:dyDescent="0.3">
+      <c r="J63">
+        <f t="shared" si="3"/>
+        <v>29.656430184336504</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="3"/>
+        <v>40.287093619896361</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="3"/>
+        <v>59.879020503557413</v>
+      </c>
+    </row>
+    <row r="65" spans="7:12" x14ac:dyDescent="0.3">
       <c r="G65">
         <f>100*($F$63-G63)/(65)</f>
         <v>6.9868981344916827</v>
@@ -1860,8 +1945,20 @@
         <v>13.687043160546915</v>
       </c>
       <c r="I65">
-        <f t="shared" si="4"/>
+        <f>100*($F$63-I63)/(65)</f>
         <v>16.273760471222481</v>
+      </c>
+      <c r="J65">
+        <f>100*($F$63-J63)/(65)</f>
+        <v>-10.218306455282763</v>
+      </c>
+      <c r="K65">
+        <f t="shared" ref="J65:L65" si="5">100*($F$63-K63)/(65)</f>
+        <v>-26.573173279221002</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="5"/>
+        <v>-56.714599254084156</v>
       </c>
     </row>
   </sheetData>

--- a/models/Fully_incomplete_markets_ADMM - Different deltas/NEW WAY implied WACC/cinv_risk_free.xlsx
+++ b/models/Fully_incomplete_markets_ADMM - Different deltas/NEW WAY implied WACC/cinv_risk_free.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\msc-thesis-incomplete-markets-LDES\models\Fully_incomplete_markets_ADMM - Different deltas\NEW WAY implied WACC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A335413-F94F-4EDF-AFAA-C37714CFC4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BB29C2-0144-40DE-893A-1DE12A3162C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39465" yWindow="765" windowWidth="17745" windowHeight="14400" xr2:uid="{F02FDA62-4D99-42AF-9059-B760232356C5}"/>
   </bookViews>

--- a/models/Fully_incomplete_markets_ADMM - Different deltas/NEW WAY implied WACC/cinv_risk_free.xlsx
+++ b/models/Fully_incomplete_markets_ADMM - Different deltas/NEW WAY implied WACC/cinv_risk_free.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\msc-thesis-incomplete-markets-LDES\models\Fully_incomplete_markets_ADMM - Different deltas\NEW WAY implied WACC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BB29C2-0144-40DE-893A-1DE12A3162C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC4CBCF-200C-42A8-B7CB-455A7723B527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39465" yWindow="765" windowWidth="17745" windowHeight="14400" xr2:uid="{F02FDA62-4D99-42AF-9059-B760232356C5}"/>
   </bookViews>

--- a/models/Fully_incomplete_markets_ADMM - Different deltas/NEW WAY implied WACC/cinv_risk_free.xlsx
+++ b/models/Fully_incomplete_markets_ADMM - Different deltas/NEW WAY implied WACC/cinv_risk_free.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\msc-thesis-incomplete-markets-LDES\models\Fully_incomplete_markets_ADMM - Different deltas\NEW WAY implied WACC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC4CBCF-200C-42A8-B7CB-455A7723B527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEDBA6D-CEE2-4FD6-A3E1-B97762C6F9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="39465" yWindow="765" windowWidth="17745" windowHeight="14400" xr2:uid="{F02FDA62-4D99-42AF-9059-B760232356C5}"/>
   </bookViews>

--- a/models/Fully_incomplete_markets_ADMM - Different deltas/NEW WAY implied WACC/cinv_risk_free.xlsx
+++ b/models/Fully_incomplete_markets_ADMM - Different deltas/NEW WAY implied WACC/cinv_risk_free.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\msc-thesis-incomplete-markets-LDES\models\Fully_incomplete_markets_ADMM - Different deltas\NEW WAY implied WACC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEDBA6D-CEE2-4FD6-A3E1-B97762C6F9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276C4296-6AD9-4907-9145-B94FFA352A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39465" yWindow="765" windowWidth="17745" windowHeight="14400" xr2:uid="{F02FDA62-4D99-42AF-9059-B760232356C5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F02FDA62-4D99-42AF-9059-B760232356C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4043" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4074" uniqueCount="56">
   <si>
     <t>WACC</t>
   </si>
@@ -716,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DCA424E-CEAF-4124-BB54-B05AB72DADB3}">
-  <dimension ref="A1:XFD99"/>
+  <dimension ref="A1:XFD148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -961,11 +961,11 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>7.0000000000000007E-2</v>
+        <v>0.27810000000000001</v>
       </c>
       <c r="D10">
         <f>(C10*((1+C10)^B10))/(((1+C10)^B10)-1)</f>
-        <v>9.9412601658362007E-2</v>
+        <v>0.28149867255076799</v>
       </c>
       <c r="E10">
         <v>2750000</v>
@@ -978,11 +978,11 @@
       </c>
       <c r="H10" s="4">
         <f>(E10*D10+G10)</f>
-        <v>391384.65456049552</v>
+        <v>892121.349514612</v>
       </c>
       <c r="I10" s="6">
         <f>(F10*D10)</f>
-        <v>1491.1890248754301</v>
+        <v>4222.48008826152</v>
       </c>
       <c r="J10" s="4">
         <v>391384.22369767597</v>
@@ -1014,11 +1014,11 @@
         <v>20</v>
       </c>
       <c r="C11">
-        <v>0.06</v>
+        <v>0.22389999999999999</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>8.7184556976851402E-2</v>
+        <v>0.22790718432626711</v>
       </c>
       <c r="E11">
         <v>295000</v>
@@ -1031,11 +1031,11 @@
       </c>
       <c r="H11" s="4">
         <f>(E11*D11+G11)</f>
-        <v>52719.444308171165</v>
+        <v>94232.619376248796</v>
       </c>
       <c r="I11" s="6">
         <f>(F11*D11)</f>
-        <v>17524.095952347132</v>
+        <v>45809.344049579689</v>
       </c>
       <c r="J11" s="4">
         <v>52719.386285262699</v>
@@ -53984,6 +53984,431 @@
         <v>15834949.779992457</v>
       </c>
     </row>
+    <row r="110" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C110" t="s">
+        <v>26</v>
+      </c>
+      <c r="D110" t="s">
+        <v>27</v>
+      </c>
+      <c r="E110" t="s">
+        <v>24</v>
+      </c>
+      <c r="F110" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C111">
+        <v>20.008368269999998</v>
+      </c>
+      <c r="D111">
+        <v>197.1959809</v>
+      </c>
+      <c r="E111">
+        <v>1.7968624200000001</v>
+      </c>
+      <c r="F111">
+        <v>191.18615800000001</v>
+      </c>
+    </row>
+    <row r="112" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C112">
+        <v>19.959155559999999</v>
+      </c>
+      <c r="D112">
+        <v>196.12011279999999</v>
+      </c>
+      <c r="E112">
+        <v>1.6183997059999999</v>
+      </c>
+      <c r="F112">
+        <v>174.46344450000001</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C113">
+        <v>19.926657380000002</v>
+      </c>
+      <c r="D113">
+        <v>195.74840040000001</v>
+      </c>
+      <c r="E113">
+        <v>1.4944103500000001</v>
+      </c>
+      <c r="F113">
+        <v>162.14350239999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F116" t="s">
+        <v>30</v>
+      </c>
+      <c r="G116" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>0.75</v>
+      </c>
+      <c r="C118" t="s">
+        <v>19</v>
+      </c>
+      <c r="D118">
+        <v>15414021.0401277</v>
+      </c>
+      <c r="E118">
+        <v>144.75468810000001</v>
+      </c>
+      <c r="F118">
+        <f>D118/E118</f>
+        <v>106483.74323793454</v>
+      </c>
+      <c r="G118" s="1"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C119" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D119">
+        <v>11493433.1950178</v>
+      </c>
+      <c r="E119">
+        <v>49.837251629999997</v>
+      </c>
+      <c r="F119">
+        <f t="shared" ref="F119:F122" si="3960">D119/E119</f>
+        <v>230619.32227617505</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C120" t="s">
+        <v>29</v>
+      </c>
+      <c r="D120">
+        <v>26037434.112038098</v>
+      </c>
+      <c r="E120">
+        <v>89.707052930000003</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="3960"/>
+        <v>290249.57638899994</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C121" t="s">
+        <v>20</v>
+      </c>
+      <c r="D121">
+        <v>5375028.7514867904</v>
+      </c>
+      <c r="E121">
+        <v>4</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="3960"/>
+        <v>1343757.1878716976</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C122" t="s">
+        <v>21</v>
+      </c>
+      <c r="D122">
+        <v>8495842.9273309503</v>
+      </c>
+      <c r="E122">
+        <v>47.206758559999997</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="3960"/>
+        <v>179970.90218623457</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C123" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D123">
+        <v>294187.51492140099</v>
+      </c>
+      <c r="E123">
+        <v>536761.88270379603</v>
+      </c>
+      <c r="F123">
+        <f>D123+E123</f>
+        <v>830949.39762519696</v>
+      </c>
+      <c r="G123">
+        <v>3250.7157837516202</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C124" t="s">
+        <v>23</v>
+      </c>
+      <c r="D124">
+        <v>8565.1948451630105</v>
+      </c>
+      <c r="E124">
+        <v>96349.386653646507</v>
+      </c>
+      <c r="F124">
+        <f>D124+E124</f>
+        <v>104914.58149880952</v>
+      </c>
+      <c r="G124">
+        <v>36996.427993316101</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F127" t="s">
+        <v>30</v>
+      </c>
+      <c r="G127" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>0.5</v>
+      </c>
+      <c r="C129" t="s">
+        <v>19</v>
+      </c>
+      <c r="D129">
+        <v>15810527.3084208</v>
+      </c>
+      <c r="E129">
+        <v>143.77193740000001</v>
+      </c>
+      <c r="F129">
+        <f>D129/E129</f>
+        <v>109969.49470349697</v>
+      </c>
+      <c r="G129" s="1"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C130" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D130">
+        <v>11846681.545437099</v>
+      </c>
+      <c r="E130">
+        <v>49.736619840000003</v>
+      </c>
+      <c r="F130">
+        <f t="shared" ref="F130:F133" si="3961">D130/E130</f>
+        <v>238188.31242547702</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C131" t="s">
+        <v>29</v>
+      </c>
+      <c r="D131">
+        <v>26681126.939079601</v>
+      </c>
+      <c r="E131">
+        <v>89.52591572</v>
+      </c>
+      <c r="F131">
+        <f t="shared" si="3961"/>
+        <v>298026.85316871956</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C132" t="s">
+        <v>20</v>
+      </c>
+      <c r="D132">
+        <v>5634143.6537319003</v>
+      </c>
+      <c r="E132">
+        <v>4</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="3961"/>
+        <v>1408535.9134329751</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C133" t="s">
+        <v>21</v>
+      </c>
+      <c r="D133">
+        <v>11007006.2443559</v>
+      </c>
+      <c r="E133">
+        <v>47.003929880000001</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="3961"/>
+        <v>234172.04204960191</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C134" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D134">
+        <v>331900.31052014203</v>
+      </c>
+      <c r="E134">
+        <v>568070.74779952294</v>
+      </c>
+      <c r="F134">
+        <f>D134+E134</f>
+        <v>899971.05831966503</v>
+      </c>
+      <c r="G134">
+        <v>3610.66763245313</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C135" t="s">
+        <v>23</v>
+      </c>
+      <c r="D135">
+        <v>8802.7571648073008</v>
+      </c>
+      <c r="E135">
+        <v>93917.781467606997</v>
+      </c>
+      <c r="F135">
+        <f>D135+E135</f>
+        <v>102720.5386324143</v>
+      </c>
+      <c r="G135">
+        <v>39851.2268485698</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F140" t="s">
+        <v>30</v>
+      </c>
+      <c r="G140" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>0.25</v>
+      </c>
+      <c r="C142" t="s">
+        <v>19</v>
+      </c>
+      <c r="D142">
+        <v>16316054.024857201</v>
+      </c>
+      <c r="E142">
+        <v>143.0400932</v>
+      </c>
+      <c r="F142">
+        <f>D142/E142</f>
+        <v>114066.29889456197</v>
+      </c>
+      <c r="G142" s="1"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C143" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D143">
+        <v>12290635.622761101</v>
+      </c>
+      <c r="E143">
+        <v>49.510145790000003</v>
+      </c>
+      <c r="F143">
+        <f t="shared" ref="F143:F146" si="3962">D143/E143</f>
+        <v>248244.787540972</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C144" t="s">
+        <v>29</v>
+      </c>
+      <c r="D144">
+        <v>27481077.666990001</v>
+      </c>
+      <c r="E144">
+        <v>89.118262419999994</v>
+      </c>
+      <c r="F144">
+        <f>D144/E144</f>
+        <v>308366.3989932402</v>
+      </c>
+    </row>
+    <row r="145" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C145" t="s">
+        <v>20</v>
+      </c>
+      <c r="D145">
+        <v>5984342.0681904098</v>
+      </c>
+      <c r="E145">
+        <v>4</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="3962"/>
+        <v>1496085.5170476025</v>
+      </c>
+    </row>
+    <row r="146" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C146" t="s">
+        <v>21</v>
+      </c>
+      <c r="D146">
+        <v>14550077.3186274</v>
+      </c>
+      <c r="E146">
+        <v>46.46491554</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="3962"/>
+        <v>313141.15498825675</v>
+      </c>
+    </row>
+    <row r="147" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C147" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D147">
+        <v>420956.60285609099</v>
+      </c>
+      <c r="E147">
+        <v>616548.98373355903</v>
+      </c>
+      <c r="F147">
+        <f>D147+E147</f>
+        <v>1037505.58658965</v>
+      </c>
+      <c r="G147">
+        <v>4222.1407506650303</v>
+      </c>
+    </row>
+    <row r="148" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C148" t="s">
+        <v>23</v>
+      </c>
+      <c r="D148">
+        <v>9667.3944101976795</v>
+      </c>
+      <c r="E148">
+        <v>93500.272454031496</v>
+      </c>
+      <c r="F148">
+        <f>D148+E148</f>
+        <v>103167.66686422918</v>
+      </c>
+      <c r="G148">
+        <v>45800.435132134</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/models/Fully_incomplete_markets_ADMM - Different deltas/NEW WAY implied WACC/cinv_risk_free.xlsx
+++ b/models/Fully_incomplete_markets_ADMM - Different deltas/NEW WAY implied WACC/cinv_risk_free.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\msc-thesis-incomplete-markets-LDES\models\Fully_incomplete_markets_ADMM - Different deltas\NEW WAY implied WACC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{276C4296-6AD9-4907-9145-B94FFA352A26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2ECF39-A81C-43EF-AD1D-F7F0F9E278E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F02FDA62-4D99-42AF-9059-B760232356C5}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{F02FDA62-4D99-42AF-9059-B760232356C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -716,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DCA424E-CEAF-4124-BB54-B05AB72DADB3}">
-  <dimension ref="A1:XFD148"/>
+  <dimension ref="A1:XFD176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -880,10 +880,10 @@
       </c>
       <c r="F6" s="2">
         <f>(D6*E6+G6)</f>
-        <v>426127.98790348525</v>
+        <v>143127.98790348525</v>
       </c>
       <c r="G6">
-        <v>312000</v>
+        <v>29000</v>
       </c>
       <c r="V6" t="s">
         <v>16</v>
@@ -961,11 +961,11 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>0.27810000000000001</v>
+        <v>0.1178</v>
       </c>
       <c r="D10">
         <f>(C10*((1+C10)^B10))/(((1+C10)^B10)-1)</f>
-        <v>0.28149867255076799</v>
+        <v>0.13614158717917088</v>
       </c>
       <c r="E10">
         <v>2750000</v>
@@ -978,11 +978,11 @@
       </c>
       <c r="H10" s="4">
         <f>(E10*D10+G10)</f>
-        <v>892121.349514612</v>
+        <v>492389.36474271992</v>
       </c>
       <c r="I10" s="6">
         <f>(F10*D10)</f>
-        <v>4222.48008826152</v>
+        <v>2042.1238076875632</v>
       </c>
       <c r="J10" s="4">
         <v>391384.22369767597</v>
@@ -1014,11 +1014,11 @@
         <v>20</v>
       </c>
       <c r="C11">
-        <v>0.22389999999999999</v>
+        <v>8.3699999999999997E-2</v>
       </c>
       <c r="D11">
         <f t="shared" si="0"/>
-        <v>0.22790718432626711</v>
+        <v>0.10467255595643084</v>
       </c>
       <c r="E11">
         <v>295000</v>
@@ -1031,11 +1031,11 @@
       </c>
       <c r="H11" s="4">
         <f>(E11*D11+G11)</f>
-        <v>94232.619376248796</v>
+        <v>57878.404007147095</v>
       </c>
       <c r="I11" s="6">
         <f>(F11*D11)</f>
-        <v>45809.344049579689</v>
+        <v>21039.183747242598</v>
       </c>
       <c r="J11" s="4">
         <v>52719.386285262699</v>
@@ -54409,7 +54409,54 @@
         <v>45800.435132134</v>
       </c>
     </row>
+    <row r="157" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D157" s="1"/>
+      <c r="F157" s="1"/>
+    </row>
+    <row r="158" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="D158" s="1"/>
+      <c r="F158" s="1"/>
+    </row>
+    <row r="161" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="G161" s="1"/>
+      <c r="H161" s="1"/>
+    </row>
+    <row r="162" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="G162" s="1"/>
+    </row>
+    <row r="163" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="G163" s="1"/>
+    </row>
+    <row r="164" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="G164" s="1"/>
+    </row>
+    <row r="167" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D167" s="1"/>
+      <c r="F167" s="1"/>
+    </row>
+    <row r="168" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D168" s="1"/>
+      <c r="F168" s="1"/>
+    </row>
+    <row r="169" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D169" s="1"/>
+      <c r="F169" s="1"/>
+    </row>
+    <row r="170" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D170" s="1"/>
+      <c r="F170" s="1"/>
+    </row>
+    <row r="171" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D171" s="1"/>
+      <c r="F171" s="1"/>
+    </row>
+    <row r="176" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="G176" s="1"/>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C157:D171">
+    <sortCondition ref="D157:D171"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
